--- a/20200134150-DLCM-SuaChuaLon--/20200134150-tl.xlsx
+++ b/20200134150-DLCM-SuaChuaLon--/20200134150-tl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DRIVE\ThuLoc\2020\20200134150-DLCM-SuaChuaLon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSTT\20200134150-DLCM-SuaChuaLon--\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38065941-F21E-4D80-BB64-B41145AE5917}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC191C-AE39-45D5-8FF5-C20D6BDB4223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu loc" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -762,6 +764,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,31 +810,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1091,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1104,7 @@
     <col min="3" max="3" width="34.109375" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="59" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="250" width="9.109375" style="30"/>
     <col min="251" max="251" width="5" style="30" customWidth="1"/>
@@ -1801,52 +1803,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -1856,7 +1858,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="60"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1877,7 +1879,7 @@
       <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="54" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -1894,7 +1896,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="62"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
@@ -1913,7 +1915,7 @@
       <c r="E8" s="41">
         <v>12.162000000000001</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="17">
         <f>F8*E8</f>
         <v>0</v>
@@ -1935,7 +1937,7 @@
       <c r="E9" s="41">
         <v>2.141</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="17">
         <f>F9*E9</f>
         <v>0</v>
@@ -1957,7 +1959,7 @@
       <c r="E10" s="41">
         <v>6</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="17">
         <f t="shared" ref="G10:G73" si="0">F10*E10</f>
         <v>0</v>
@@ -1979,7 +1981,7 @@
       <c r="E11" s="41">
         <v>21.5</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2001,7 +2003,7 @@
       <c r="E12" s="41">
         <v>67</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2023,7 +2025,7 @@
       <c r="E13" s="41">
         <v>172</v>
       </c>
-      <c r="F13" s="63"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2045,7 +2047,7 @@
       <c r="E14" s="41">
         <v>102</v>
       </c>
-      <c r="F14" s="63"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2067,7 +2069,7 @@
       <c r="E15" s="41">
         <v>10</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2089,7 +2091,7 @@
       <c r="E16" s="41">
         <v>52</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2111,7 +2113,7 @@
       <c r="E17" s="41">
         <v>1</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2133,7 +2135,7 @@
       <c r="E18" s="41">
         <v>146</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2155,7 +2157,7 @@
       <c r="E19" s="41">
         <v>41</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2177,7 +2179,7 @@
       <c r="E20" s="41">
         <v>31</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2199,7 +2201,7 @@
       <c r="E21" s="41">
         <v>74</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2221,7 +2223,7 @@
       <c r="E22" s="41">
         <v>10</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2243,7 +2245,7 @@
       <c r="E23" s="41">
         <v>19</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2265,7 +2267,7 @@
       <c r="E24" s="41">
         <v>31</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2281,7 +2283,7 @@
       <c r="C25" s="39"/>
       <c r="D25" s="44"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="63"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2303,7 +2305,7 @@
       <c r="E26" s="41">
         <v>6</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="56">
         <v>52000</v>
       </c>
       <c r="G26" s="17">
@@ -2327,7 +2329,7 @@
       <c r="E27" s="41">
         <v>4</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="56">
         <f>F26</f>
         <v>52000</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="E28" s="41">
         <v>32</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="56">
         <v>320000</v>
       </c>
       <c r="G28" s="17">
@@ -2376,7 +2378,7 @@
       <c r="E29" s="41">
         <v>10</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="56">
         <v>15200</v>
       </c>
       <c r="G29" s="17">
@@ -2400,7 +2402,7 @@
       <c r="E30" s="41">
         <v>141</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="56">
         <v>20900</v>
       </c>
       <c r="G30" s="17">
@@ -2424,7 +2426,7 @@
       <c r="E31" s="41">
         <v>172</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="56">
         <v>23750</v>
       </c>
       <c r="G31" s="17">
@@ -2448,7 +2450,7 @@
       <c r="E32" s="41">
         <v>10</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="56">
         <v>26600</v>
       </c>
       <c r="G32" s="17">
@@ -2472,7 +2474,7 @@
       <c r="E33" s="41">
         <v>104</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="56">
         <v>25600</v>
       </c>
       <c r="G33" s="17">
@@ -2496,7 +2498,7 @@
       <c r="E34" s="41">
         <v>104</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="56">
         <v>17100</v>
       </c>
       <c r="G34" s="17">
@@ -2520,7 +2522,7 @@
       <c r="E35" s="41">
         <v>219</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="56">
         <v>28500</v>
       </c>
       <c r="G35" s="17">
@@ -2544,7 +2546,7 @@
       <c r="E36" s="41">
         <v>74</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="56">
         <v>33200</v>
       </c>
       <c r="G36" s="17">
@@ -2568,7 +2570,7 @@
       <c r="E37" s="41">
         <v>10</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="56">
         <v>237500</v>
       </c>
       <c r="G37" s="17">
@@ -2592,7 +2594,7 @@
       <c r="E38" s="41">
         <v>33</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="56">
         <v>95000</v>
       </c>
       <c r="G38" s="17">
@@ -2616,7 +2618,7 @@
       <c r="E39" s="41">
         <v>5</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="56">
         <v>76000</v>
       </c>
       <c r="G39" s="17">
@@ -2640,7 +2642,7 @@
       <c r="E40" s="41">
         <v>33</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="56">
         <v>123500</v>
       </c>
       <c r="G40" s="17">
@@ -2664,7 +2666,7 @@
       <c r="E41" s="41">
         <v>172</v>
       </c>
-      <c r="F41" s="63">
+      <c r="F41" s="56">
         <v>120000</v>
       </c>
       <c r="G41" s="17">
@@ -2688,7 +2690,7 @@
       <c r="E42" s="41">
         <v>106</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="56">
         <v>240000</v>
       </c>
       <c r="G42" s="17">
@@ -2712,7 +2714,7 @@
       <c r="E43" s="41">
         <v>74</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="56">
         <v>210000</v>
       </c>
       <c r="G43" s="17">
@@ -2736,7 +2738,7 @@
       <c r="E44" s="41">
         <v>16</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="56">
         <v>57000</v>
       </c>
       <c r="G44" s="17">
@@ -2760,7 +2762,7 @@
       <c r="E45" s="41">
         <v>8</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="56">
         <v>80000</v>
       </c>
       <c r="G45" s="17">
@@ -2784,7 +2786,7 @@
       <c r="E46" s="41">
         <v>1168</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="56">
         <v>32000</v>
       </c>
       <c r="G46" s="17">
@@ -2808,7 +2810,7 @@
       <c r="E47" s="41">
         <v>33</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="56">
         <v>14200</v>
       </c>
       <c r="G47" s="17">
@@ -2832,7 +2834,7 @@
       <c r="E48" s="41">
         <v>74</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="56">
         <v>76000</v>
       </c>
       <c r="G48" s="17">
@@ -2856,7 +2858,7 @@
       <c r="E49" s="41">
         <v>70</v>
       </c>
-      <c r="F49" s="63">
+      <c r="F49" s="56">
         <v>28500</v>
       </c>
       <c r="G49" s="17">
@@ -2880,7 +2882,7 @@
       <c r="E50" s="41">
         <v>4</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="56">
         <v>33200</v>
       </c>
       <c r="G50" s="17">
@@ -2904,7 +2906,7 @@
       <c r="E51" s="41">
         <v>35</v>
       </c>
-      <c r="F51" s="63">
+      <c r="F51" s="56">
         <v>142500</v>
       </c>
       <c r="G51" s="17">
@@ -2928,7 +2930,7 @@
       <c r="E52" s="41">
         <v>143</v>
       </c>
-      <c r="F52" s="63">
+      <c r="F52" s="56">
         <v>45000</v>
       </c>
       <c r="G52" s="17">
@@ -2952,7 +2954,7 @@
       <c r="E53" s="41">
         <v>74</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="56">
         <v>23700</v>
       </c>
       <c r="G53" s="17">
@@ -2976,7 +2978,7 @@
       <c r="E54" s="41">
         <v>5</v>
       </c>
-      <c r="F54" s="63">
+      <c r="F54" s="56">
         <v>76000</v>
       </c>
       <c r="G54" s="17">
@@ -3000,7 +3002,7 @@
       <c r="E55" s="41">
         <v>66</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="56">
         <v>23700</v>
       </c>
       <c r="G55" s="17">
@@ -3024,7 +3026,7 @@
       <c r="E56" s="41">
         <v>41</v>
       </c>
-      <c r="F56" s="63">
+      <c r="F56" s="56">
         <v>120000</v>
       </c>
       <c r="G56" s="17">
@@ -3048,7 +3050,7 @@
       <c r="E57" s="41">
         <v>41</v>
       </c>
-      <c r="F57" s="63">
+      <c r="F57" s="56">
         <v>28500</v>
       </c>
       <c r="G57" s="17">
@@ -3072,7 +3074,7 @@
       <c r="E58" s="41">
         <v>1</v>
       </c>
-      <c r="F58" s="63">
+      <c r="F58" s="56">
         <v>33200</v>
       </c>
       <c r="G58" s="17">
@@ -3096,7 +3098,7 @@
       <c r="E59" s="41">
         <v>1</v>
       </c>
-      <c r="F59" s="63">
+      <c r="F59" s="56">
         <v>130000</v>
       </c>
       <c r="G59" s="17">
@@ -3120,7 +3122,7 @@
       <c r="E60" s="41">
         <v>1</v>
       </c>
-      <c r="F60" s="63">
+      <c r="F60" s="56">
         <f>F59</f>
         <v>130000</v>
       </c>
@@ -3145,7 +3147,7 @@
       <c r="E61" s="41">
         <v>5</v>
       </c>
-      <c r="F61" s="63">
+      <c r="F61" s="56">
         <v>260000</v>
       </c>
       <c r="G61" s="17">
@@ -3169,7 +3171,7 @@
       <c r="E62" s="41">
         <v>292</v>
       </c>
-      <c r="F62" s="63">
+      <c r="F62" s="56">
         <v>9500</v>
       </c>
       <c r="G62" s="17">
@@ -3187,7 +3189,7 @@
       <c r="C63" s="39"/>
       <c r="D63" s="44"/>
       <c r="E63" s="45"/>
-      <c r="F63" s="63"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" s="18" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
@@ -3206,7 +3208,7 @@
       <c r="E64" s="41">
         <v>5.5</v>
       </c>
-      <c r="F64" s="63">
+      <c r="F64" s="56">
         <v>300000</v>
       </c>
       <c r="G64" s="17">
@@ -3230,7 +3232,7 @@
       <c r="E65" s="41">
         <v>4.7</v>
       </c>
-      <c r="F65" s="63">
+      <c r="F65" s="56">
         <v>200000</v>
       </c>
       <c r="G65" s="17">
@@ -3254,7 +3256,7 @@
       <c r="E66" s="41">
         <v>33</v>
       </c>
-      <c r="F66" s="63">
+      <c r="F66" s="56">
         <v>25000</v>
       </c>
       <c r="G66" s="17">
@@ -3278,7 +3280,7 @@
       <c r="E67" s="41">
         <v>19</v>
       </c>
-      <c r="F67" s="63">
+      <c r="F67" s="56">
         <v>1700000</v>
       </c>
       <c r="G67" s="17">
@@ -3302,7 +3304,7 @@
       <c r="E68" s="41">
         <v>141</v>
       </c>
-      <c r="F68" s="63">
+      <c r="F68" s="56">
         <v>160000</v>
       </c>
       <c r="G68" s="17">
@@ -3326,7 +3328,7 @@
       <c r="E69" s="41">
         <v>146</v>
       </c>
-      <c r="F69" s="63">
+      <c r="F69" s="56">
         <f>F68</f>
         <v>160000</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="E70" s="41">
         <v>52</v>
       </c>
-      <c r="F70" s="63">
+      <c r="F70" s="56">
         <v>475000</v>
       </c>
       <c r="G70" s="17">
@@ -3375,7 +3377,7 @@
       <c r="E71" s="41">
         <v>243</v>
       </c>
-      <c r="F71" s="63">
+      <c r="F71" s="56">
         <v>72000</v>
       </c>
       <c r="G71" s="17">
@@ -3399,7 +3401,7 @@
       <c r="E72" s="41">
         <v>276</v>
       </c>
-      <c r="F72" s="63">
+      <c r="F72" s="56">
         <f>F71</f>
         <v>72000</v>
       </c>
@@ -3424,7 +3426,7 @@
       <c r="E73" s="41">
         <v>67</v>
       </c>
-      <c r="F73" s="63">
+      <c r="F73" s="56">
         <v>65000</v>
       </c>
       <c r="G73" s="17">
@@ -3448,7 +3450,7 @@
       <c r="E74" s="41">
         <v>74</v>
       </c>
-      <c r="F74" s="63">
+      <c r="F74" s="56">
         <f>F73</f>
         <v>65000</v>
       </c>
@@ -3473,7 +3475,7 @@
       <c r="E75" s="41">
         <v>48</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F75" s="56">
         <v>35000</v>
       </c>
       <c r="G75" s="17">
@@ -3497,7 +3499,7 @@
       <c r="E76" s="41">
         <v>35</v>
       </c>
-      <c r="F76" s="63">
+      <c r="F76" s="56">
         <f>F75</f>
         <v>35000</v>
       </c>
@@ -3522,7 +3524,7 @@
       <c r="E77" s="41">
         <v>52</v>
       </c>
-      <c r="F77" s="63">
+      <c r="F77" s="56">
         <v>25000</v>
       </c>
       <c r="G77" s="17">
@@ -3546,7 +3548,7 @@
       <c r="E78" s="41">
         <v>74</v>
       </c>
-      <c r="F78" s="63">
+      <c r="F78" s="56">
         <f>F77</f>
         <v>25000</v>
       </c>
@@ -3569,7 +3571,7 @@
       <c r="E79" s="46">
         <v>11.923999999999999</v>
       </c>
-      <c r="F79" s="63">
+      <c r="F79" s="56">
         <v>3700000</v>
       </c>
       <c r="G79" s="17">
@@ -3593,7 +3595,7 @@
       <c r="E80" s="46">
         <v>1.796</v>
       </c>
-      <c r="F80" s="63">
+      <c r="F80" s="56">
         <f>F79</f>
         <v>3700000</v>
       </c>
@@ -3618,7 +3620,7 @@
       <c r="E81" s="46">
         <v>11.923999999999999</v>
       </c>
-      <c r="F81" s="63">
+      <c r="F81" s="56">
         <v>2850000</v>
       </c>
       <c r="G81" s="17">
@@ -3632,7 +3634,7 @@
       <c r="C82" s="15"/>
       <c r="D82" s="19"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="63"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:9" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
@@ -3641,7 +3643,7 @@
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="59"/>
+      <c r="F83" s="52"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3652,12 +3654,12 @@
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="64"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="28">
         <f>SUM(G8:G83)</f>
         <v>419329500</v>
       </c>
-      <c r="I84" s="67"/>
+      <c r="I84" s="60"/>
     </row>
     <row r="86" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="51" t="s">
@@ -3665,59 +3667,59 @@
       </c>
       <c r="C86" s="34"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="65"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="35"/>
     </row>
     <row r="87" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="50"/>
       <c r="C87" s="34"/>
       <c r="E87" s="34"/>
-      <c r="F87" s="65"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="35"/>
     </row>
     <row r="88" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="50"/>
-      <c r="D88" s="58" t="s">
+      <c r="D88" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
     </row>
     <row r="89" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="50"/>
       <c r="B89" s="36"/>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
     </row>
     <row r="90" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="50"/>
       <c r="B90" s="36"/>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
     </row>
     <row r="91" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="50"/>
       <c r="B91" s="36"/>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
     </row>
     <row r="92" spans="1:9" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="50"/>
       <c r="C92" s="34"/>
-      <c r="F92" s="65"/>
+      <c r="F92" s="58"/>
       <c r="G92" s="35"/>
     </row>
   </sheetData>
